--- a/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
+++ b/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/Deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{1427330D-7909-4C12-9002-F163BFB2FE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35F99513-849F-4BC6-8412-191BB61AB17A}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{1427330D-7909-4C12-9002-F163BFB2FE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9CDD658-C83B-4558-8F2B-E25E99E68E8C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5928" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5956" uniqueCount="504">
   <si>
     <t>Sequence</t>
   </si>
@@ -9457,6 +9457,15 @@
   </si>
   <si>
     <t>99.36% Lumpenella longirostris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.09% Xenolumpenus longipterus, Poroclinus rothrocki, </t>
+  </si>
+  <si>
+    <t>99.37% Oncorhynchus kawamurae, Oncorhynchus nerka</t>
+  </si>
+  <si>
+    <t>99.36% Onchorhynchus nerka</t>
   </si>
 </sst>
 </file>
@@ -9979,8 +9988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I338"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="I256" sqref="I256"/>
+    <sheetView topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22155,8 +22164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BCACDE-7C62-4795-BCF1-A029DECBB41A}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J160" sqref="J160"/>
+    <sheetView topLeftCell="A111" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26528,8 +26537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5085614D-A8E1-47C2-8EAC-787C4920C226}">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28708,6 +28717,9 @@
       <c r="J83" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="L83" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -28734,6 +28746,9 @@
       <c r="J84" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="L84" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -28760,6 +28775,9 @@
       <c r="J85" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="L85" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -28789,6 +28807,9 @@
       <c r="J86" s="2" t="s">
         <v>361</v>
       </c>
+      <c r="L86" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -28818,6 +28839,9 @@
       <c r="J87" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="L87" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -28844,6 +28868,9 @@
       <c r="J88" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="L88" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
@@ -28870,6 +28897,9 @@
       <c r="J89" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="L89" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -28896,6 +28926,9 @@
       <c r="J90" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="L90" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -28922,6 +28955,9 @@
       <c r="J91" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="L91" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -28948,6 +28984,9 @@
       <c r="J92" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="L92" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
@@ -28974,6 +29013,9 @@
       <c r="J93" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="L93" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -29000,6 +29042,9 @@
       <c r="J94" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="L94" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -29026,6 +29071,9 @@
       <c r="J95" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="L95" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -29052,8 +29100,11 @@
       <c r="J96" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L96" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>296</v>
       </c>
@@ -29078,8 +29129,11 @@
       <c r="J97" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L97" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>296</v>
       </c>
@@ -29104,8 +29158,11 @@
       <c r="J98" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L98" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -29130,8 +29187,11 @@
       <c r="J99" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L99" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>296</v>
       </c>
@@ -29156,8 +29216,11 @@
       <c r="J100" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L100" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>296</v>
       </c>
@@ -29182,8 +29245,11 @@
       <c r="J101" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L101" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>296</v>
       </c>
@@ -29208,8 +29274,11 @@
       <c r="J102" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L102" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>296</v>
       </c>
@@ -29234,8 +29303,11 @@
       <c r="J103" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L103" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>296</v>
       </c>
@@ -29260,8 +29332,11 @@
       <c r="J104" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L104" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>296</v>
       </c>
@@ -29286,8 +29361,11 @@
       <c r="J105" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>296</v>
       </c>
@@ -29312,8 +29390,11 @@
       <c r="J106" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L106" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>297</v>
       </c>
@@ -29338,8 +29419,11 @@
       <c r="J107" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L107" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>306</v>
       </c>
@@ -29364,8 +29448,11 @@
       <c r="J108" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L108" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>306</v>
       </c>
@@ -29390,8 +29477,11 @@
       <c r="J109" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L109" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>306</v>
       </c>
@@ -29415,6 +29505,9 @@
       </c>
       <c r="J110" s="3" t="s">
         <v>160</v>
+      </c>
+      <c r="L110" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
+++ b/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE20D25-2DA5-47BB-AAF8-1800C8DBBDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF677E9-7E9A-4D47-9B50-00022D81D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6065" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6141" uniqueCount="516">
   <si>
     <t>Sequence</t>
   </si>
@@ -9490,6 +9490,18 @@
   </si>
   <si>
     <t>98.09% Xenolumpenus longipterus, Poroclinus rothrocki</t>
+  </si>
+  <si>
+    <t>NOT PLAUSIBLE BY RANGE - according to ADFG</t>
+  </si>
+  <si>
+    <t>Plausible By Range?</t>
+  </si>
+  <si>
+    <t>UNLIKELY BUT POSSIBLE - pee ADFG</t>
+  </si>
+  <si>
+    <t>plausible by range - fishbase</t>
   </si>
 </sst>
 </file>
@@ -9647,7 +9659,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9702,7 +9714,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10015,12 +10026,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I338"/>
   <sheetViews>
-    <sheetView topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="A293" sqref="A293"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="196.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
@@ -22191,8 +22203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BCACDE-7C62-4795-BCF1-A029DECBB41A}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView topLeftCell="H29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26562,14 +26574,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5085614D-A8E1-47C2-8EAC-787C4920C226}">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="12.265625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -26584,7 +26597,7 @@
     <col min="13" max="13" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26624,40 +26637,46 @@
       <c r="M1" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="29" t="s">
+      <c r="N1" s="27" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="C2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N2" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>151</v>
       </c>
@@ -26689,7 +26708,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>151</v>
       </c>
@@ -26721,7 +26740,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>151</v>
       </c>
@@ -26753,7 +26772,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>151</v>
       </c>
@@ -26785,7 +26804,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>151</v>
       </c>
@@ -26817,7 +26836,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>151</v>
       </c>
@@ -26849,7 +26868,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>151</v>
       </c>
@@ -26881,7 +26900,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>151</v>
       </c>
@@ -26913,7 +26932,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>152</v>
       </c>
@@ -26945,1383 +26964,1512 @@
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="29" t="s">
+      <c r="C12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="29" t="s">
+      <c r="N12" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="29" t="s">
+      <c r="C13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L13" s="29" t="s">
+      <c r="L13" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="29" t="s">
+      <c r="N13" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="29" t="s">
+      <c r="C14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="29" t="s">
+      <c r="N14" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="29" t="s">
+      <c r="C15" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M15" s="29" t="s">
+      <c r="M15" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="29" t="s">
+      <c r="N15" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="C16" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="29" t="s">
+      <c r="N16" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="29" t="s">
+      <c r="C17" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="29" t="s">
+      <c r="N17" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="29" t="s">
+      <c r="C18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="29" t="s">
+      <c r="N18" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="C19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M19" s="29" t="s">
+      <c r="M19" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="29" t="s">
+      <c r="N19" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="29" t="s">
+      <c r="C20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L20" s="30" t="s">
+      <c r="L20" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="29" t="s">
+      <c r="N20" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="29" t="s">
+      <c r="C21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="29" t="s">
+      <c r="N21" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="29" t="s">
+      <c r="C22" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="29" t="s">
+      <c r="N22" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="29" t="s">
+      <c r="C23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="29" t="s">
+      <c r="N23" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="29" t="s">
+      <c r="C24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="29" t="s">
+      <c r="N24" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="29" t="s">
+      <c r="C25" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L25" s="30" t="s">
+      <c r="L25" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="29" t="s">
+      <c r="N25" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="29" t="s">
+      <c r="C26" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L26" s="30" t="s">
+      <c r="L26" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M26" s="29" t="s">
+      <c r="M26" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="29" t="s">
+      <c r="N26" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="29" t="s">
+      <c r="C27" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="29" t="s">
+      <c r="N27" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="29" t="s">
+      <c r="C28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L28" s="30" t="s">
+      <c r="L28" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M28" s="29" t="s">
+      <c r="M28" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="29" t="s">
+      <c r="N28" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="29" t="s">
+      <c r="C29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L29" s="30" t="s">
+      <c r="L29" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="29" t="s">
+      <c r="N29" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="29" t="s">
+      <c r="C30" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="29" t="s">
+      <c r="J30" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="L30" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M30" s="29" t="s">
+      <c r="M30" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="29" t="s">
+      <c r="N30" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="29" t="s">
+      <c r="C31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="J31" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L31" s="30" t="s">
+      <c r="L31" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M31" s="29" t="s">
+      <c r="M31" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="29" t="s">
+      <c r="N31" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="29" t="s">
+      <c r="C32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J32" s="29" t="s">
+      <c r="J32" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L32" s="30" t="s">
+      <c r="L32" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M32" s="29" t="s">
+      <c r="M32" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="29" t="s">
+      <c r="N32" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="29" t="s">
+      <c r="C33" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="J33" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L33" s="30" t="s">
+      <c r="L33" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M33" s="29" t="s">
+      <c r="M33" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="29" t="s">
+      <c r="N33" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="29" t="s">
+      <c r="C34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L34" s="30" t="s">
+      <c r="L34" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M34" s="29" t="s">
+      <c r="M34" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="29" t="s">
+      <c r="N34" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="29" t="s">
+      <c r="C35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="29" t="s">
+      <c r="J35" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L35" s="30" t="s">
+      <c r="L35" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M35" s="29" t="s">
+      <c r="M35" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="29" t="s">
+      <c r="N35" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="29" t="s">
+      <c r="C36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="29" t="s">
+      <c r="J36" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L36" s="30" t="s">
+      <c r="L36" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M36" s="29" t="s">
+      <c r="M36" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="29" t="s">
+      <c r="N36" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="29" t="s">
+      <c r="C37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="29" t="s">
+      <c r="J37" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L37" s="30" t="s">
+      <c r="L37" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M37" s="29" t="s">
+      <c r="M37" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="29" t="s">
+      <c r="N37" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="29" t="s">
+      <c r="C38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J38" s="29" t="s">
+      <c r="J38" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L38" s="30" t="s">
+      <c r="L38" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M38" s="29" t="s">
+      <c r="M38" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="29" t="s">
+      <c r="N38" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="29" t="s">
+      <c r="C39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J39" s="29" t="s">
+      <c r="J39" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L39" s="30" t="s">
+      <c r="L39" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M39" s="29" t="s">
+      <c r="M39" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="29" t="s">
+      <c r="N39" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="29" t="s">
+      <c r="C40" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="29" t="s">
+      <c r="G40" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="29" t="s">
+      <c r="J40" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L40" s="30" t="s">
+      <c r="L40" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="M40" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="29" t="s">
+      <c r="N40" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="29" t="s">
+      <c r="C41" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J41" s="29" t="s">
+      <c r="J41" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L41" s="30" t="s">
+      <c r="L41" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M41" s="29" t="s">
+      <c r="M41" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="29" t="s">
+      <c r="N41" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="29" t="s">
+      <c r="C42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J42" s="29" t="s">
+      <c r="J42" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L42" s="30" t="s">
+      <c r="L42" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M42" s="29" t="s">
+      <c r="M42" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="29" t="s">
+      <c r="N42" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="29" t="s">
+      <c r="C43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J43" s="29" t="s">
+      <c r="J43" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L43" s="30" t="s">
+      <c r="L43" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M43" s="29" t="s">
+      <c r="M43" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="29" t="s">
+      <c r="N43" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="29" t="s">
+      <c r="C44" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="29" t="s">
+      <c r="J44" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L44" s="30" t="s">
+      <c r="L44" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M44" s="29" t="s">
+      <c r="M44" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="29" t="s">
+      <c r="N44" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="29" t="s">
+      <c r="C45" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="29" t="s">
+      <c r="J45" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L45" s="30" t="s">
+      <c r="L45" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M45" s="29" t="s">
+      <c r="M45" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="29" t="s">
+      <c r="N45" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="29" t="s">
+      <c r="C46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="29" t="s">
+      <c r="J46" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L46" s="30" t="s">
+      <c r="L46" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M46" s="29" t="s">
+      <c r="M46" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="29" t="s">
+      <c r="N46" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="29" t="s">
+      <c r="C47" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="29" t="s">
+      <c r="J47" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L47" s="30" t="s">
+      <c r="L47" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M47" s="29" t="s">
+      <c r="M47" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="29" t="s">
+      <c r="N47" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="29" t="s">
+      <c r="C48" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="29" t="s">
+      <c r="G48" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="29" t="s">
+      <c r="J48" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L48" s="30" t="s">
+      <c r="L48" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M48" s="29" t="s">
+      <c r="M48" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="29" t="s">
+      <c r="N48" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="29" t="s">
+      <c r="C49" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="G49" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J49" s="29" t="s">
+      <c r="J49" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L49" s="30" t="s">
+      <c r="L49" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M49" s="29" t="s">
+      <c r="M49" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="29" t="s">
+      <c r="N49" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="29" t="s">
+      <c r="C50" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="29" t="s">
+      <c r="J50" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L50" s="30" t="s">
+      <c r="L50" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M50" s="29" t="s">
+      <c r="M50" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="29" t="s">
+      <c r="N50" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="29" t="s">
+      <c r="C51" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="29" t="s">
+      <c r="J51" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="M51" s="29" t="s">
+      <c r="M51" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="29" t="s">
+      <c r="N51" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="29" t="s">
+      <c r="C52" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J52" s="29" t="s">
+      <c r="J52" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L52" s="30" t="s">
+      <c r="L52" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="M52" s="29" t="s">
+      <c r="M52" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="29" t="s">
+      <c r="N52" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="29" t="s">
+      <c r="C53" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="29" t="s">
+      <c r="J53" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L53" s="30" t="s">
+      <c r="L53" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="M53" s="29" t="s">
+      <c r="M53" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="29" t="s">
+      <c r="N53" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="29" t="s">
+      <c r="C54" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G54" s="29" t="s">
+      <c r="G54" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J54" s="29" t="s">
+      <c r="J54" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L54" s="30" t="s">
+      <c r="L54" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="M54" s="29" t="s">
+      <c r="M54" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N54" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>178</v>
       </c>
@@ -28338,1021 +28486,1066 @@
         <v>506</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="28" t="s">
+    <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J56" s="28" t="s">
+      <c r="J56" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L56" s="28" t="s">
+      <c r="L56" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="28" t="s">
+    <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J57" s="28" t="s">
+      <c r="J57" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L57" s="28" t="s">
+      <c r="L57" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="58" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="28" t="s">
+    <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J58" s="28" t="s">
+      <c r="J58" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L58" s="28" t="s">
+      <c r="L58" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="28" t="s">
+    <row r="59" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J59" s="28" t="s">
+      <c r="J59" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L59" s="28" t="s">
+      <c r="L59" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="60" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="28" t="s">
+    <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J60" s="28" t="s">
+      <c r="J60" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L60" s="28" t="s">
+      <c r="L60" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="28" t="s">
+    <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J61" s="28" t="s">
+      <c r="J61" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L61" s="28" t="s">
+      <c r="L61" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="28" t="s">
+    <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J62" s="28" t="s">
+      <c r="J62" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L62" s="28" t="s">
+      <c r="L62" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="63" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="28" t="s">
+    <row r="63" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J63" s="28" t="s">
+      <c r="J63" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L63" s="28" t="s">
+      <c r="L63" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="28" t="s">
+    <row r="64" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J64" s="28" t="s">
+      <c r="J64" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L64" s="28" t="s">
+      <c r="L64" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="28" t="s">
+    <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J65" s="28" t="s">
+      <c r="J65" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L65" s="28" t="s">
+      <c r="L65" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="28" t="s">
+    <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="28" t="s">
+      <c r="J66" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L66" s="28" t="s">
+      <c r="L66" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="28" t="s">
+    <row r="67" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B67" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J67" s="28" t="s">
+      <c r="J67" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L67" s="28" t="s">
+      <c r="L67" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="28" t="s">
+    <row r="68" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J68" s="28" t="s">
+      <c r="J68" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L68" s="28" t="s">
+      <c r="L68" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="28" t="s">
+    <row r="69" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B69" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="28" t="s">
+      <c r="J69" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L69" s="28" t="s">
+      <c r="L69" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="28" t="s">
+    <row r="70" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J70" s="28" t="s">
+      <c r="J70" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L70" s="28" t="s">
+      <c r="L70" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="28" t="s">
+    <row r="71" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B71" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J71" s="28" t="s">
+      <c r="J71" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L71" s="28" t="s">
+      <c r="L71" s="2" t="s">
         <v>496</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="31" t="s">
+    <row r="72" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C72" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="31" t="s">
+      <c r="C72" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G72" s="31" t="s">
+      <c r="G72" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H72" s="31" t="s">
+      <c r="H72" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="J72" s="31" t="s">
+      <c r="J72" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="L72" s="31" t="s">
+      <c r="L72" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="M72" s="29" t="s">
+      <c r="M72" s="28" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="28" t="s">
+    <row r="73" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B73" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="28" t="s">
+      <c r="C73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G73" s="28" t="s">
+      <c r="G73" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J73" s="28" t="s">
+      <c r="J73" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="L73" s="28" t="s">
+      <c r="L73" s="2" t="s">
         <v>498</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="28" t="s">
+    <row r="74" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="28" t="s">
+      <c r="C74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G74" s="28" t="s">
+      <c r="G74" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J74" s="28" t="s">
+      <c r="J74" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="L74" s="28" t="s">
+      <c r="L74" s="2" t="s">
         <v>498</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="28" t="s">
+    <row r="75" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="28" t="s">
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G75" s="28" t="s">
+      <c r="G75" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J75" s="28" t="s">
+      <c r="J75" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="L75" s="28" t="s">
+      <c r="L75" s="2" t="s">
         <v>498</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="28" t="s">
+    <row r="76" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="28" t="s">
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G76" s="28" t="s">
+      <c r="G76" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J76" s="28" t="s">
+      <c r="J76" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="L76" s="28" t="s">
+      <c r="L76" s="2" t="s">
         <v>498</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="28" t="s">
+    <row r="77" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="28" t="s">
+      <c r="C77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G77" s="28" t="s">
+      <c r="G77" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J77" s="28" t="s">
+      <c r="J77" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="L77" s="28" t="s">
+      <c r="L77" s="2" t="s">
         <v>498</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="31" t="s">
+    <row r="78" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B78" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C78" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="31" t="s">
+      <c r="C78" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="J78" s="31" t="s">
+      <c r="J78" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="L78" s="31" t="s">
+      <c r="L78" s="30" t="s">
         <v>499</v>
       </c>
-      <c r="M78" s="29" t="s">
+      <c r="M78" s="28" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="79" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="31" t="s">
+    <row r="79" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="31" t="s">
+      <c r="C79" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G79" s="31" t="s">
+      <c r="G79" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J79" s="31" t="s">
+      <c r="J79" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="L79" s="31" t="s">
+      <c r="L79" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="M79" s="29" t="s">
+      <c r="M79" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="31" t="s">
+      <c r="N79" s="30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C80" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="31" t="s">
+      <c r="C80" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G80" s="31" t="s">
+      <c r="G80" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J80" s="31" t="s">
+      <c r="J80" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="L80" s="31" t="s">
+      <c r="L80" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="M80" s="29" t="s">
+      <c r="M80" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="31" t="s">
+      <c r="N80" s="30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="31" t="s">
+      <c r="C81" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G81" s="31" t="s">
+      <c r="G81" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J81" s="31" t="s">
+      <c r="J81" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="L81" s="31" t="s">
+      <c r="L81" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="M81" s="29" t="s">
+      <c r="M81" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="31" t="s">
+      <c r="N81" s="30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="31" t="s">
+      <c r="B82" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="31" t="s">
+      <c r="C82" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G82" s="31" t="s">
+      <c r="G82" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J82" s="31" t="s">
+      <c r="J82" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="L82" s="31" t="s">
+      <c r="L82" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="M82" s="29" t="s">
+      <c r="M82" s="28" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="31" t="s">
+      <c r="N82" s="30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C83" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="31" t="s">
+      <c r="C83" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G83" s="31" t="s">
+      <c r="G83" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J83" s="31" t="s">
+      <c r="J83" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="L83" s="31" t="s">
+      <c r="L83" s="30" t="s">
         <v>511</v>
       </c>
-      <c r="M83" s="29" t="s">
+      <c r="M83" s="28" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="31" t="s">
+      <c r="N83" s="30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="31" t="s">
+      <c r="C84" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G84" s="31" t="s">
+      <c r="G84" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J84" s="31" t="s">
+      <c r="J84" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="L84" s="31" t="s">
+      <c r="L84" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="M84" s="29" t="s">
+      <c r="M84" s="28" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="31" t="s">
+      <c r="N84" s="30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="31" t="s">
+      <c r="C85" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G85" s="31" t="s">
+      <c r="G85" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J85" s="31" t="s">
+      <c r="J85" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="L85" s="31" t="s">
+      <c r="L85" s="30" t="s">
         <v>501</v>
       </c>
-      <c r="M85" s="29" t="s">
+      <c r="M85" s="28" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="31" t="s">
+      <c r="N85" s="30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="31" t="s">
+      <c r="C86" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G86" s="31" t="s">
+      <c r="G86" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="H86" s="31" t="s">
+      <c r="H86" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="J86" s="31" t="s">
+      <c r="J86" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="L86" s="31" t="s">
+      <c r="L86" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="M86" s="29" t="s">
+      <c r="M86" s="28" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="31" t="s">
+      <c r="N86" s="30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="31" t="s">
+      <c r="C87" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="G87" s="31" t="s">
+      <c r="G87" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="H87" s="31" t="s">
+      <c r="H87" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="J87" s="32" t="s">
+      <c r="J87" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="L87" s="31" t="s">
+      <c r="L87" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="M87" s="29" t="s">
+      <c r="M87" s="28" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="88" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="31" t="s">
+    <row r="88" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="31" t="s">
+      <c r="C88" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G88" s="31" t="s">
+      <c r="G88" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="J88" s="32" t="s">
+      <c r="J88" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="L88" s="31" t="s">
+      <c r="L88" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="M88" s="31" t="s">
+      <c r="M88" s="30" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="31" t="s">
+      <c r="N88" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B89" s="31" t="s">
+      <c r="B89" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="31" t="s">
+      <c r="C89" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G89" s="31" t="s">
+      <c r="G89" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="J89" s="32" t="s">
+      <c r="J89" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="L89" s="31" t="s">
+      <c r="L89" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="M89" s="31" t="s">
+      <c r="M89" s="30" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="31" t="s">
+      <c r="N89" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" s="31" t="s">
+      <c r="C90" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G90" s="31" t="s">
+      <c r="G90" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="J90" s="32" t="s">
+      <c r="J90" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="L90" s="31" t="s">
+      <c r="L90" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="M90" s="31" t="s">
+      <c r="M90" s="30" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="31" t="s">
+      <c r="N90" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="31" t="s">
+      <c r="C91" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G91" s="31" t="s">
+      <c r="G91" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="J91" s="32" t="s">
+      <c r="J91" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="L91" s="31" t="s">
+      <c r="L91" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="M91" s="31" t="s">
+      <c r="M91" s="30" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="31" t="s">
+      <c r="N91" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="31" t="s">
+      <c r="C92" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G92" s="31" t="s">
+      <c r="G92" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="J92" s="32" t="s">
+      <c r="J92" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="L92" s="31" t="s">
+      <c r="L92" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="M92" s="31" t="s">
+      <c r="M92" s="30" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="31" t="s">
+      <c r="N92" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C93" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="31" t="s">
+      <c r="C93" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G93" s="31" t="s">
+      <c r="G93" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="J93" s="32" t="s">
+      <c r="J93" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="L93" s="31" t="s">
+      <c r="L93" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="M93" s="31" t="s">
+      <c r="M93" s="30" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="31" t="s">
+      <c r="N93" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="31" t="s">
+      <c r="C94" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G94" s="31" t="s">
+      <c r="G94" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="J94" s="32" t="s">
+      <c r="J94" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="L94" s="31" t="s">
+      <c r="L94" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="M94" s="31" t="s">
+      <c r="M94" s="30" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N94" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="19" t="s">
         <v>296</v>
       </c>
@@ -29374,7 +29567,7 @@
       <c r="G95" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J95" s="32" t="s">
+      <c r="J95" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L95" s="19" t="s">
@@ -29383,8 +29576,11 @@
       <c r="M95" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N95" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="19" t="s">
         <v>296</v>
       </c>
@@ -29406,7 +29602,7 @@
       <c r="G96" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J96" s="32" t="s">
+      <c r="J96" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L96" s="19" t="s">
@@ -29415,8 +29611,11 @@
       <c r="M96" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N96" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="19" t="s">
         <v>296</v>
       </c>
@@ -29438,7 +29637,7 @@
       <c r="G97" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J97" s="32" t="s">
+      <c r="J97" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L97" s="19" t="s">
@@ -29447,8 +29646,11 @@
       <c r="M97" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N97" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="19" t="s">
         <v>296</v>
       </c>
@@ -29470,7 +29672,7 @@
       <c r="G98" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J98" s="32" t="s">
+      <c r="J98" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L98" s="19" t="s">
@@ -29479,8 +29681,11 @@
       <c r="M98" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N98" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="19" t="s">
         <v>296</v>
       </c>
@@ -29502,7 +29707,7 @@
       <c r="G99" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J99" s="32" t="s">
+      <c r="J99" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L99" s="19" t="s">
@@ -29511,8 +29716,11 @@
       <c r="M99" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N99" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="19" t="s">
         <v>296</v>
       </c>
@@ -29534,7 +29742,7 @@
       <c r="G100" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J100" s="32" t="s">
+      <c r="J100" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L100" s="19" t="s">
@@ -29543,8 +29751,11 @@
       <c r="M100" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N100" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="19" t="s">
         <v>296</v>
       </c>
@@ -29566,7 +29777,7 @@
       <c r="G101" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J101" s="32" t="s">
+      <c r="J101" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L101" s="19" t="s">
@@ -29575,8 +29786,11 @@
       <c r="M101" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N101" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="19" t="s">
         <v>296</v>
       </c>
@@ -29598,7 +29812,7 @@
       <c r="G102" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J102" s="32" t="s">
+      <c r="J102" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L102" s="19" t="s">
@@ -29607,8 +29821,11 @@
       <c r="M102" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N102" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="19" t="s">
         <v>296</v>
       </c>
@@ -29630,7 +29847,7 @@
       <c r="G103" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J103" s="32" t="s">
+      <c r="J103" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L103" s="19" t="s">
@@ -29639,8 +29856,11 @@
       <c r="M103" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N103" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="19" t="s">
         <v>296</v>
       </c>
@@ -29662,7 +29882,7 @@
       <c r="G104" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J104" s="32" t="s">
+      <c r="J104" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L104" s="19" t="s">
@@ -29671,8 +29891,11 @@
       <c r="M104" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N104" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="19" t="s">
         <v>296</v>
       </c>
@@ -29694,7 +29917,7 @@
       <c r="G105" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J105" s="32" t="s">
+      <c r="J105" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L105" s="19" t="s">
@@ -29703,8 +29926,11 @@
       <c r="M105" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N105" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="19" t="s">
         <v>296</v>
       </c>
@@ -29726,7 +29952,7 @@
       <c r="G106" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J106" s="32" t="s">
+      <c r="J106" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L106" s="19" t="s">
@@ -29735,8 +29961,11 @@
       <c r="M106" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N106" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="19" t="s">
         <v>297</v>
       </c>
@@ -29758,7 +29987,7 @@
       <c r="G107" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J107" s="32" t="s">
+      <c r="J107" s="31" t="s">
         <v>308</v>
       </c>
       <c r="L107" s="19" t="s">
@@ -29767,8 +29996,11 @@
       <c r="M107" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N107" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="19" t="s">
         <v>306</v>
       </c>
@@ -29790,7 +30022,7 @@
       <c r="G108" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J108" s="32" t="s">
+      <c r="J108" s="31" t="s">
         <v>160</v>
       </c>
       <c r="L108" s="19" t="s">
@@ -29799,8 +30031,11 @@
       <c r="M108" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N108" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="19" t="s">
         <v>306</v>
       </c>
@@ -29822,7 +30057,7 @@
       <c r="G109" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J109" s="32" t="s">
+      <c r="J109" s="31" t="s">
         <v>160</v>
       </c>
       <c r="L109" s="19" t="s">
@@ -29831,8 +30066,11 @@
       <c r="M109" s="19" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="N109" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="19" t="s">
         <v>306</v>
       </c>
@@ -29854,7 +30092,7 @@
       <c r="G110" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J110" s="32" t="s">
+      <c r="J110" s="31" t="s">
         <v>160</v>
       </c>
       <c r="L110" s="19" t="s">
@@ -29862,6 +30100,9 @@
       </c>
       <c r="M110" s="19" t="s">
         <v>504</v>
+      </c>
+      <c r="N110" s="28" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
+++ b/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/Deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF677E9-7E9A-4D47-9B50-00022D81D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9EF677E9-7E9A-4D47-9B50-00022D81D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC75794-1029-4149-94EB-041F27D8C372}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapped" sheetId="1" r:id="rId1"/>
@@ -10026,24 +10026,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I338"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="196.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="197" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -10507,7 +10507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -10685,7 +10685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>136</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>136</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>136</v>
       </c>
@@ -11374,7 +11374,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -11432,7 +11432,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>138</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>140</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>144</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>144</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>148</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>149</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>150</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>151</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>151</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>151</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>151</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>151</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>152</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>153</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>154</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>154</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>155</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>156</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>157</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>161</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>162</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>164</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>165</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>166</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>167</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>167</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>167</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>167</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>167</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>167</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>167</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>167</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>167</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>167</v>
       </c>
@@ -12785,7 +12785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>167</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>167</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>167</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>167</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>167</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>167</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>167</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>167</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>167</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>167</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>167</v>
       </c>
@@ -13038,7 +13038,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>167</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>167</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>167</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>167</v>
       </c>
@@ -13130,7 +13130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>167</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>167</v>
       </c>
@@ -13176,7 +13176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>167</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>167</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>167</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>167</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>167</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>167</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>167</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>167</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>167</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>168</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>169</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>170</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>170</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>171</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>172</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>173</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>174</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>175</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>176</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>177</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>178</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>178</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>178</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>178</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>178</v>
       </c>
@@ -13723,7 +13723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>178</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>178</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>178</v>
       </c>
@@ -13747,7 +13747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>178</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>178</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -13779,7 +13779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>178</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>178</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>178</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>178</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>179</v>
       </c>
@@ -13827,7 +13827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>180</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>182</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>190</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>194</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>194</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>194</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>195</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>196</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>198</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>199</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>202</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>202</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>203</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>203</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>203</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>204</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>207</v>
       </c>
@@ -14390,7 +14390,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>207</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>207</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>208</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>208</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>208</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>208</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>208</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>208</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>209</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>209</v>
       </c>
@@ -14689,7 +14689,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>215</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>215</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>216</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>217</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>218</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -15177,7 +15177,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>224</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>224</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>224</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>224</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>224</v>
       </c>
@@ -15385,7 +15385,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>224</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>224</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>224</v>
       </c>
@@ -15463,7 +15463,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>224</v>
       </c>
@@ -15489,7 +15489,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>225</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>226</v>
       </c>
@@ -15541,7 +15541,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>226</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>226</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>226</v>
       </c>
@@ -15619,7 +15619,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>227</v>
       </c>
@@ -15645,7 +15645,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>227</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>228</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>229</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>232</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>232</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>232</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>232</v>
       </c>
@@ -15815,7 +15815,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>233</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>233</v>
       </c>
@@ -15861,7 +15861,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>233</v>
       </c>
@@ -15884,7 +15884,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>234</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>238</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>239</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>239</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>239</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>239</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>239</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>239</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>239</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>240</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>244</v>
       </c>
@@ -16158,7 +16158,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>247</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>248</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>249</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>249</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>249</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>250</v>
       </c>
@@ -16317,7 +16317,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>251</v>
       </c>
@@ -16346,7 +16346,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>254</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>255</v>
       </c>
@@ -16404,7 +16404,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>256</v>
       </c>
@@ -16430,7 +16430,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>258</v>
       </c>
@@ -16459,7 +16459,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>262</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>263</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>265</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>266</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>268</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>269</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>269</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>270</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>271</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>272</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>274</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>278</v>
       </c>
@@ -16765,7 +16765,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>281</v>
       </c>
@@ -16788,7 +16788,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>282</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>285</v>
       </c>
@@ -16846,7 +16846,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>285</v>
       </c>
@@ -16875,7 +16875,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>285</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>285</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>286</v>
       </c>
@@ -16956,7 +16956,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>286</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>286</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>287</v>
       </c>
@@ -17031,7 +17031,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>288</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>291</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>291</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>292</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>293</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>294</v>
       </c>
@@ -17175,7 +17175,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>294</v>
       </c>
@@ -17198,7 +17198,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>294</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>295</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>296</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>296</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>296</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>296</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>296</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>296</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>296</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>296</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>296</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>296</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>296</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>296</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>296</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>296</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>296</v>
       </c>
@@ -17589,7 +17589,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>296</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>296</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>296</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>296</v>
       </c>
@@ -17681,7 +17681,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>297</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>298</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>299</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>300</v>
       </c>
@@ -17773,7 +17773,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>301</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>302</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>302</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>302</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>302</v>
       </c>
@@ -17888,7 +17888,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>303</v>
       </c>
@@ -17917,7 +17917,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>303</v>
       </c>
@@ -17946,7 +17946,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>306</v>
       </c>
@@ -17969,7 +17969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>306</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>306</v>
       </c>
@@ -18024,24 +18024,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18E0B1-8AFD-4421-A418-DA9540F90652}">
   <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="255.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18076,7 +18076,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -18111,7 +18111,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -18214,7 +18214,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -18248,7 +18248,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -18350,7 +18350,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -18367,7 +18367,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -18404,7 +18404,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -18490,7 +18490,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -18577,7 +18577,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -18646,7 +18646,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>133</v>
       </c>
@@ -18714,7 +18714,7 @@
       </c>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -18743,7 +18743,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -18801,7 +18801,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -18830,7 +18830,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -18888,7 +18888,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -18915,7 +18915,7 @@
       </c>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -19034,7 +19034,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -19063,7 +19063,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>157</v>
       </c>
@@ -19092,7 +19092,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -19234,7 +19234,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -19248,7 +19248,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>190</v>
       </c>
@@ -19280,7 +19280,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -19313,7 +19313,7 @@
       </c>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -19346,7 +19346,7 @@
       </c>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -19379,7 +19379,7 @@
       </c>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>195</v>
       </c>
@@ -19414,7 +19414,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>199</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -19472,7 +19472,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -19501,7 +19501,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>203</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -19579,7 +19579,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>204</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -19637,7 +19637,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>206</v>
       </c>
@@ -19695,7 +19695,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -19724,7 +19724,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>207</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>207</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -19811,7 +19811,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -19838,7 +19838,7 @@
       </c>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -19865,7 +19865,7 @@
       </c>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>208</v>
       </c>
@@ -19892,7 +19892,7 @@
       </c>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>208</v>
       </c>
@@ -19919,7 +19919,7 @@
       </c>
       <c r="K72" s="2"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>208</v>
       </c>
@@ -19946,7 +19946,7 @@
       </c>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>208</v>
       </c>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="K74" s="2"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -20000,7 +20000,7 @@
       </c>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>209</v>
       </c>
@@ -20058,7 +20058,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>209</v>
       </c>
@@ -20087,7 +20087,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>209</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>209</v>
       </c>
@@ -20145,7 +20145,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -20171,7 +20171,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>211</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>212</v>
       </c>
@@ -20232,7 +20232,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>215</v>
       </c>
@@ -20265,7 +20265,7 @@
       </c>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>215</v>
       </c>
@@ -20298,7 +20298,7 @@
       </c>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>215</v>
       </c>
@@ -20331,7 +20331,7 @@
       </c>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>215</v>
       </c>
@@ -20364,7 +20364,7 @@
       </c>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -20397,7 +20397,7 @@
       </c>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -20430,7 +20430,7 @@
       </c>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>218</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>220</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>222</v>
       </c>
@@ -20532,7 +20532,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -20564,7 +20564,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -20596,7 +20596,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>224</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>224</v>
       </c>
@@ -20660,7 +20660,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>224</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>224</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>224</v>
       </c>
@@ -20756,7 +20756,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>224</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -20820,7 +20820,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>224</v>
       </c>
@@ -20852,7 +20852,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>224</v>
       </c>
@@ -20884,7 +20884,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -20916,7 +20916,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>225</v>
       </c>
@@ -20948,7 +20948,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>226</v>
       </c>
@@ -20978,7 +20978,7 @@
       </c>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>226</v>
       </c>
@@ -21008,7 +21008,7 @@
       </c>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>226</v>
       </c>
@@ -21038,7 +21038,7 @@
       </c>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>226</v>
       </c>
@@ -21068,7 +21068,7 @@
       </c>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>227</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>227</v>
       </c>
@@ -21132,7 +21132,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>228</v>
       </c>
@@ -21158,7 +21158,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>234</v>
       </c>
@@ -21190,7 +21190,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>238</v>
       </c>
@@ -21223,7 +21223,7 @@
       </c>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>239</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>239</v>
       </c>
@@ -21301,7 +21301,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>239</v>
       </c>
@@ -21327,7 +21327,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>239</v>
       </c>
@@ -21353,7 +21353,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -21379,7 +21379,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>247</v>
       </c>
@@ -21431,7 +21431,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>248</v>
       </c>
@@ -21458,7 +21458,7 @@
       </c>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>256</v>
       </c>
@@ -21487,7 +21487,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>268</v>
       </c>
@@ -21501,7 +21501,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>269</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>269</v>
       </c>
@@ -21565,7 +21565,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>270</v>
       </c>
@@ -21597,7 +21597,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>271</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>281</v>
       </c>
@@ -21658,7 +21658,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>286</v>
       </c>
@@ -21685,7 +21685,7 @@
       </c>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>286</v>
       </c>
@@ -21712,7 +21712,7 @@
       </c>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>286</v>
       </c>
@@ -21739,7 +21739,7 @@
       </c>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>291</v>
       </c>
@@ -21768,7 +21768,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>291</v>
       </c>
@@ -21797,7 +21797,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>292</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>293</v>
       </c>
@@ -21855,7 +21855,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>294</v>
       </c>
@@ -21882,7 +21882,7 @@
       </c>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>294</v>
       </c>
@@ -21909,7 +21909,7 @@
       </c>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>294</v>
       </c>
@@ -21936,7 +21936,7 @@
       </c>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>295</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>298</v>
       </c>
@@ -21994,7 +21994,7 @@
       <c r="M142" s="6"/>
       <c r="N142" s="6"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>299</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>300</v>
       </c>
@@ -22052,7 +22052,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>301</v>
       </c>
@@ -22078,7 +22078,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>302</v>
       </c>
@@ -22107,7 +22107,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>302</v>
       </c>
@@ -22136,7 +22136,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>302</v>
       </c>
@@ -22165,7 +22165,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>302</v>
       </c>
@@ -22203,26 +22203,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BCACDE-7C62-4795-BCF1-A029DECBB41A}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView topLeftCell="H29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67.1328125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.140625" customWidth="1"/>
     <col min="11" max="11" width="245" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="255.73046875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22260,7 +22260,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -22295,7 +22295,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -22347,7 +22347,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -22364,7 +22364,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -22381,7 +22381,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -22398,7 +22398,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -22432,7 +22432,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -22449,7 +22449,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -22483,7 +22483,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -22500,7 +22500,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -22517,7 +22517,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>99</v>
       </c>
@@ -22534,7 +22534,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -22568,7 +22568,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -22617,7 +22617,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>109</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -22683,7 +22683,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -22715,7 +22715,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -22747,7 +22747,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -22779,7 +22779,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -22811,7 +22811,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="19" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>120</v>
       </c>
@@ -22825,7 +22825,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -22857,7 +22857,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -22892,7 +22892,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>133</v>
       </c>
@@ -22927,7 +22927,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -22959,7 +22959,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -22991,7 +22991,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -23023,7 +23023,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -23055,7 +23055,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -23084,7 +23084,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -23116,7 +23116,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -23145,7 +23145,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -23177,7 +23177,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -23209,7 +23209,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -23241,7 +23241,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -23273,7 +23273,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -23305,7 +23305,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>157</v>
       </c>
@@ -23337,7 +23337,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -23401,7 +23401,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>176</v>
       </c>
@@ -23462,7 +23462,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -23494,7 +23494,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>190</v>
       </c>
@@ -23540,7 +23540,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -23606,7 +23606,7 @@
       </c>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>194</v>
       </c>
@@ -23639,7 +23639,7 @@
       </c>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>195</v>
       </c>
@@ -23674,7 +23674,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>199</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>202</v>
       </c>
@@ -23732,7 +23732,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>202</v>
       </c>
@@ -23761,7 +23761,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>203</v>
       </c>
@@ -23790,7 +23790,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -23816,7 +23816,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>204</v>
       </c>
@@ -23871,7 +23871,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -23900,7 +23900,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -23929,7 +23929,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>206</v>
       </c>
@@ -23958,7 +23958,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -23987,7 +23987,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>207</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>207</v>
       </c>
@@ -24045,7 +24045,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>207</v>
       </c>
@@ -24074,7 +24074,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>208</v>
       </c>
@@ -24103,7 +24103,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>208</v>
       </c>
@@ -24132,7 +24132,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
         <v>208</v>
       </c>
@@ -24161,7 +24161,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>208</v>
       </c>
@@ -24190,7 +24190,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>208</v>
       </c>
@@ -24219,7 +24219,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>208</v>
       </c>
@@ -24248,7 +24248,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
         <v>208</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -24306,7 +24306,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>209</v>
       </c>
@@ -24335,7 +24335,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>209</v>
       </c>
@@ -24364,7 +24364,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>209</v>
       </c>
@@ -24393,7 +24393,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>209</v>
       </c>
@@ -24422,7 +24422,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>211</v>
       </c>
@@ -24478,7 +24478,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>212</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>215</v>
       </c>
@@ -24548,7 +24548,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>215</v>
       </c>
@@ -24583,7 +24583,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>215</v>
       </c>
@@ -24618,7 +24618,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>215</v>
       </c>
@@ -24653,7 +24653,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>215</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>215</v>
       </c>
@@ -24723,7 +24723,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
         <v>218</v>
       </c>
@@ -24755,7 +24755,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24" t="s">
         <v>220</v>
       </c>
@@ -24790,7 +24790,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>222</v>
       </c>
@@ -24825,7 +24825,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -24857,7 +24857,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -24889,7 +24889,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>224</v>
       </c>
@@ -24921,7 +24921,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>224</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>224</v>
       </c>
@@ -24985,7 +24985,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>224</v>
       </c>
@@ -25017,7 +25017,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>224</v>
       </c>
@@ -25049,7 +25049,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>224</v>
       </c>
@@ -25081,7 +25081,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -25113,7 +25113,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>224</v>
       </c>
@@ -25145,7 +25145,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>224</v>
       </c>
@@ -25177,7 +25177,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -25209,7 +25209,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>225</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>226</v>
       </c>
@@ -25271,7 +25271,7 @@
       </c>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>226</v>
       </c>
@@ -25301,7 +25301,7 @@
       </c>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>226</v>
       </c>
@@ -25331,7 +25331,7 @@
       </c>
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>226</v>
       </c>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="L109" s="10"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>227</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>227</v>
       </c>
@@ -25425,7 +25425,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>228</v>
       </c>
@@ -25451,7 +25451,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>234</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>238</v>
       </c>
@@ -25516,7 +25516,7 @@
       </c>
       <c r="L114" s="10"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>239</v>
       </c>
@@ -25542,7 +25542,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -25568,7 +25568,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>239</v>
       </c>
@@ -25594,7 +25594,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>239</v>
       </c>
@@ -25620,7 +25620,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>239</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -25672,7 +25672,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -25698,7 +25698,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
         <v>247</v>
       </c>
@@ -25724,7 +25724,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
         <v>248</v>
       </c>
@@ -25753,7 +25753,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>256</v>
       </c>
@@ -25782,7 +25782,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>268</v>
       </c>
@@ -25796,7 +25796,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>269</v>
       </c>
@@ -25828,7 +25828,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>269</v>
       </c>
@@ -25860,7 +25860,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>270</v>
       </c>
@@ -25892,7 +25892,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>271</v>
       </c>
@@ -25924,7 +25924,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>281</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
         <v>286</v>
       </c>
@@ -25983,7 +25983,7 @@
       </c>
       <c r="L131" s="21"/>
     </row>
-    <row r="132" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
         <v>286</v>
       </c>
@@ -26013,7 +26013,7 @@
       </c>
       <c r="L132" s="21"/>
     </row>
-    <row r="133" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
         <v>286</v>
       </c>
@@ -26043,7 +26043,7 @@
       </c>
       <c r="L133" s="21"/>
     </row>
-    <row r="134" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
         <v>291</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
         <v>291</v>
       </c>
@@ -26107,7 +26107,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
         <v>292</v>
       </c>
@@ -26139,7 +26139,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>293</v>
       </c>
@@ -26171,7 +26171,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="19" t="s">
         <v>294</v>
       </c>
@@ -26198,7 +26198,7 @@
       </c>
       <c r="L138" s="21"/>
     </row>
-    <row r="139" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
         <v>294</v>
       </c>
@@ -26225,7 +26225,7 @@
       </c>
       <c r="L139" s="21"/>
     </row>
-    <row r="140" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
         <v>294</v>
       </c>
@@ -26252,7 +26252,7 @@
       </c>
       <c r="L140" s="21"/>
     </row>
-    <row r="141" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="19" t="s">
         <v>295</v>
       </c>
@@ -26282,7 +26282,7 @@
       </c>
       <c r="L141" s="22"/>
     </row>
-    <row r="142" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="19" t="s">
         <v>298</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
         <v>299</v>
       </c>
@@ -26346,7 +26346,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>300</v>
       </c>
@@ -26378,7 +26378,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>301</v>
       </c>
@@ -26408,7 +26408,7 @@
       </c>
       <c r="L145" s="22"/>
     </row>
-    <row r="146" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>302</v>
       </c>
@@ -26440,7 +26440,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
         <v>302</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>302</v>
       </c>
@@ -26504,7 +26504,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
         <v>302</v>
       </c>
@@ -26536,32 +26536,32 @@
         <v>458</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K152" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K153" s="14" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K154" s="15" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K155" s="16" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K156" s="17" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K157" s="9" t="s">
         <v>422</v>
       </c>
@@ -26576,28 +26576,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5085614D-A8E1-47C2-8EAC-787C4920C226}">
   <dimension ref="A1:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N113" sqref="N113"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.265625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="92.265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.59765625" customWidth="1"/>
+    <col min="12" max="12" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26641,7 +26641,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>112</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>151</v>
       </c>
@@ -26708,7 +26708,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>151</v>
       </c>
@@ -26740,7 +26740,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>151</v>
       </c>
@@ -26772,7 +26772,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>151</v>
       </c>
@@ -26804,7 +26804,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>151</v>
       </c>
@@ -26836,7 +26836,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>151</v>
       </c>
@@ -26868,7 +26868,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>151</v>
       </c>
@@ -26900,7 +26900,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>151</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>152</v>
       </c>
@@ -26964,7 +26964,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>155</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>166</v>
       </c>
@@ -27034,7 +27034,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>167</v>
       </c>
@@ -27069,7 +27069,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>167</v>
       </c>
@@ -27104,7 +27104,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>167</v>
       </c>
@@ -27139,7 +27139,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>167</v>
       </c>
@@ -27174,7 +27174,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>167</v>
       </c>
@@ -27209,7 +27209,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>167</v>
       </c>
@@ -27244,7 +27244,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>167</v>
       </c>
@@ -27279,7 +27279,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>167</v>
       </c>
@@ -27314,7 +27314,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>167</v>
       </c>
@@ -27349,7 +27349,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>167</v>
       </c>
@@ -27384,7 +27384,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>167</v>
       </c>
@@ -27419,7 +27419,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>167</v>
       </c>
@@ -27454,7 +27454,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>167</v>
       </c>
@@ -27489,7 +27489,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>167</v>
       </c>
@@ -27524,7 +27524,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>167</v>
       </c>
@@ -27559,7 +27559,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>167</v>
       </c>
@@ -27594,7 +27594,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>167</v>
       </c>
@@ -27629,7 +27629,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>167</v>
       </c>
@@ -27664,7 +27664,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>167</v>
       </c>
@@ -27699,7 +27699,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>167</v>
       </c>
@@ -27734,7 +27734,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>167</v>
       </c>
@@ -27769,7 +27769,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>167</v>
       </c>
@@ -27804,7 +27804,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>167</v>
       </c>
@@ -27839,7 +27839,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>167</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>167</v>
       </c>
@@ -27909,7 +27909,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>167</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>167</v>
       </c>
@@ -27979,7 +27979,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>167</v>
       </c>
@@ -28014,7 +28014,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>167</v>
       </c>
@@ -28049,7 +28049,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>167</v>
       </c>
@@ -28084,7 +28084,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>167</v>
       </c>
@@ -28119,7 +28119,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>167</v>
       </c>
@@ -28154,7 +28154,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>167</v>
       </c>
@@ -28189,7 +28189,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>167</v>
       </c>
@@ -28224,7 +28224,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>167</v>
       </c>
@@ -28259,7 +28259,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>167</v>
       </c>
@@ -28294,7 +28294,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>167</v>
       </c>
@@ -28329,7 +28329,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>167</v>
       </c>
@@ -28364,7 +28364,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>168</v>
       </c>
@@ -28399,7 +28399,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>170</v>
       </c>
@@ -28434,7 +28434,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>170</v>
       </c>
@@ -28469,7 +28469,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>178</v>
       </c>
@@ -28486,7 +28486,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>178</v>
       </c>
@@ -28503,7 +28503,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>178</v>
       </c>
@@ -28520,7 +28520,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>178</v>
       </c>
@@ -28537,7 +28537,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>178</v>
       </c>
@@ -28554,7 +28554,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>178</v>
       </c>
@@ -28571,7 +28571,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>178</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>178</v>
       </c>
@@ -28605,7 +28605,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>178</v>
       </c>
@@ -28622,7 +28622,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
@@ -28639,7 +28639,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>178</v>
       </c>
@@ -28656,7 +28656,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>178</v>
       </c>
@@ -28673,7 +28673,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>178</v>
       </c>
@@ -28690,7 +28690,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>178</v>
       </c>
@@ -28707,7 +28707,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>178</v>
       </c>
@@ -28724,7 +28724,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>178</v>
       </c>
@@ -28741,7 +28741,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>178</v>
       </c>
@@ -28758,7 +28758,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>198</v>
       </c>
@@ -28793,7 +28793,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>216</v>
       </c>
@@ -28825,7 +28825,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>216</v>
       </c>
@@ -28857,7 +28857,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>216</v>
       </c>
@@ -28889,7 +28889,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>216</v>
       </c>
@@ -28921,7 +28921,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>216</v>
       </c>
@@ -28953,7 +28953,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>217</v>
       </c>
@@ -28982,7 +28982,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>232</v>
       </c>
@@ -29017,7 +29017,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>232</v>
       </c>
@@ -29052,7 +29052,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>232</v>
       </c>
@@ -29087,7 +29087,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>232</v>
       </c>
@@ -29122,7 +29122,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>233</v>
       </c>
@@ -29157,7 +29157,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>233</v>
       </c>
@@ -29192,7 +29192,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>233</v>
       </c>
@@ -29227,7 +29227,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>263</v>
       </c>
@@ -29265,7 +29265,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>265</v>
       </c>
@@ -29300,7 +29300,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>296</v>
       </c>
@@ -29335,7 +29335,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>296</v>
       </c>
@@ -29370,7 +29370,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>296</v>
       </c>
@@ -29405,7 +29405,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
         <v>296</v>
       </c>
@@ -29440,7 +29440,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
         <v>296</v>
       </c>
@@ -29475,7 +29475,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
         <v>296</v>
       </c>
@@ -29510,7 +29510,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>296</v>
       </c>
@@ -29545,7 +29545,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>296</v>
       </c>
@@ -29580,7 +29580,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>296</v>
       </c>
@@ -29615,7 +29615,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>296</v>
       </c>
@@ -29650,7 +29650,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>296</v>
       </c>
@@ -29685,7 +29685,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>296</v>
       </c>
@@ -29720,7 +29720,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>296</v>
       </c>
@@ -29755,7 +29755,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>296</v>
       </c>
@@ -29790,7 +29790,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>296</v>
       </c>
@@ -29825,7 +29825,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>296</v>
       </c>
@@ -29860,7 +29860,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>296</v>
       </c>
@@ -29895,7 +29895,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>296</v>
       </c>
@@ -29930,7 +29930,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>296</v>
       </c>
@@ -29965,7 +29965,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>297</v>
       </c>
@@ -30000,7 +30000,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>306</v>
       </c>
@@ -30035,7 +30035,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>306</v>
       </c>
@@ -30070,7 +30070,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>306</v>
       </c>

--- a/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
+++ b/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9EF677E9-7E9A-4D47-9B50-00022D81D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC75794-1029-4149-94EB-041F27D8C372}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapped" sheetId="1" r:id="rId1"/>
@@ -9735,6 +9735,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10026,8 +10030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18024,8 +18028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18E0B1-8AFD-4421-A418-DA9540F90652}">
   <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22203,8 +22207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BCACDE-7C62-4795-BCF1-A029DECBB41A}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26577,7 +26581,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
+++ b/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9EF677E9-7E9A-4D47-9B50-00022D81D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC75794-1029-4149-94EB-041F27D8C372}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapped" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="Unresolved (2)" sheetId="4" r:id="rId3"/>
     <sheet name="Unassigned" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -10030,8 +10043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I338"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18028,8 +18041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18E0B1-8AFD-4421-A418-DA9540F90652}">
   <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22207,8 +22220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BCACDE-7C62-4795-BCF1-A029DECBB41A}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82"/>
+    <sheetView topLeftCell="I64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
+++ b/Deliverables/Copy of Copy of WADE003-arcticpred-12SP1-taxa-mapped_1 AB_JP (version 1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9EF677E9-7E9A-4D47-9B50-00022D81D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC75794-1029-4149-94EB-041F27D8C372}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapped" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="Unresolved (2)" sheetId="4" r:id="rId3"/>
     <sheet name="Unassigned" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -9735,6 +9748,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10026,8 +10043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="A334" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18024,8 +18041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18E0B1-8AFD-4421-A418-DA9540F90652}">
   <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22203,8 +22220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BCACDE-7C62-4795-BCF1-A029DECBB41A}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView topLeftCell="I64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26577,7 +26594,7 @@
   <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
